--- a/mail_list.xlsx
+++ b/mail_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hersh\Desktop\jmunmailbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054DA4D5-0788-4DB3-A063-C66E8D5C1FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D271C87-944D-4F3F-AC80-6A88521407B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7FBC34F0-7DDF-4CFE-9A26-1FD23BDECCA9}"/>
   </bookViews>
@@ -25,39 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>8482@jaipuria.com</t>
-  </si>
-  <si>
-    <t>paarthgupta42@gmail.com</t>
-  </si>
-  <si>
-    <t>pranavgupta10804@gmail.com</t>
-  </si>
-  <si>
-    <t>bhargavsania@gmail.com</t>
-  </si>
-  <si>
-    <t>krishnaagarwal19470@gmail.com</t>
-  </si>
-  <si>
-    <t>aishnaisingh@gmail.com</t>
-  </si>
-  <si>
-    <t>agarwalpahuni300@gmail.com</t>
-  </si>
-  <si>
-    <t>bhavyabhaa15@gmail.com</t>
-  </si>
-  <si>
-    <t>nupurmisra4@gmail.com</t>
-  </si>
-  <si>
-    <t>shashankssingh0711@gmail.com</t>
-  </si>
-  <si>
-    <t>hersh.singhh@gmail.com</t>
+    <t>Emails go in this column</t>
   </si>
 </sst>
 </file>
@@ -423,74 +393,26 @@
   <dimension ref="B1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{6BC8AB14-1186-4233-9990-232FB03D2355}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{606BCF7D-B192-4EE7-9F76-65C5EE46E839}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>